--- a/src/assets/excell/Model_import_incorporation.xlsx
+++ b/src/assets/excell/Model_import_incorporation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vimso\projets\dev\assurance-app\src\assets\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C9D4F3A-A3DB-43D8-873B-10454A447412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57573A06-D10E-4A6F-9ABE-66056DB77924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Adhérent principal</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Date d'incorporation</t>
+  </si>
+  <si>
+    <t>Ordre</t>
   </si>
 </sst>
 </file>
@@ -444,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -472,53 +475,56 @@
     <col min="17" max="256" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
